--- a/shoulder/QA/QA_spreadsheet.xlsx
+++ b/shoulder/QA/QA_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tired_llama\projects\bahmani-sysrev\QA 1\QA tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarvenazmohabbati/Desktop/bahmani-sysrev/shoulder/QA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B7906E-CC70-4036-B543-2150650D9957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2FDD1D-1B57-2C4A-AD02-1C2A13BBCEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cohort" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="118">
   <si>
     <t>study ID</t>
   </si>
@@ -357,12 +357,60 @@
   <si>
     <t>0 (not reported)</t>
   </si>
+  <si>
+    <t>alaiti</t>
+  </si>
+  <si>
+    <t>allaart</t>
+  </si>
+  <si>
+    <t>Benhenneda</t>
+  </si>
+  <si>
+    <t>cho</t>
+  </si>
+  <si>
+    <t>conze</t>
+  </si>
+  <si>
+    <t>daher</t>
+  </si>
+  <si>
+    <t>esfandiari</t>
+  </si>
+  <si>
+    <t>feuerriegel</t>
+  </si>
+  <si>
+    <t>guo</t>
+  </si>
+  <si>
+    <t>hahn</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>hess</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>kang</t>
+  </si>
+  <si>
+    <t>kaniewska</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +445,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -472,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -498,6 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,17 +838,17 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.77734375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="20.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="20.77734375" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4"/>
       <c r="C1" s="3" t="s">
         <v>21</v>
@@ -808,7 +862,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="2:11" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" s="9" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -840,7 +894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -866,7 +920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>31</v>
       </c>
@@ -892,7 +946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -909,7 +963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -944,17 +998,17 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.77734375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="20.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="20.77734375" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4"/>
       <c r="C1" s="3" t="s">
         <v>21</v>
@@ -968,7 +1022,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="2:11" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>48</v>
       </c>
@@ -1026,7 +1080,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>44</v>
       </c>
@@ -1052,7 +1106,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>45</v>
       </c>
@@ -1066,12 +1120,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
@@ -1098,17 +1152,17 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.77734375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="20.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4"/>
       <c r="C1" s="3" t="s">
         <v>21</v>
@@ -1122,7 +1176,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="2:10" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" s="9" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>70</v>
       </c>
@@ -1174,7 +1228,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>71</v>
       </c>
@@ -1197,7 +1251,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C5" s="12" t="s">
         <v>72</v>
       </c>
@@ -1214,7 +1268,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
       <c r="C6" s="13" t="s">
         <v>67</v>
@@ -1238,18 +1292,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0937B5B-5D18-49DF-BB84-115CDE0D1125}">
-  <dimension ref="B1:N4"/>
+  <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="14" width="20.77734375" customWidth="1"/>
+    <col min="3" max="14" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="6" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" s="6" customFormat="1" ht="240" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1344,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>99</v>
       </c>
@@ -1328,7 +1382,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>100</v>
       </c>
@@ -1366,7 +1420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
         <v>101</v>
       </c>
@@ -1402,12 +1456,668 @@
       </c>
       <c r="N4" s="6" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" t="s">
+        <v>99</v>
+      </c>
+      <c r="M19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" t="s">
+        <v>101</v>
+      </c>
+      <c r="N20" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:N51" xr:uid="{3CD5876E-1308-4E31-89DF-9DB43D646A06}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:N7 E8:N8 C8 C10:N51 D9:N9" xr:uid="{3CD5876E-1308-4E31-89DF-9DB43D646A06}">
       <formula1>$C$2:C$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/shoulder/QA/QA_spreadsheet.xlsx
+++ b/shoulder/QA/QA_spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarvenazmohabbati/Desktop/bahmani-sysrev/shoulder/QA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2FDD1D-1B57-2C4A-AD02-1C2A13BBCEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6A0A57-3459-C141-B419-96D83A1786D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="138">
   <si>
     <t>study ID</t>
   </si>
@@ -404,6 +404,66 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>kim_2020_rulling out</t>
+  </si>
+  <si>
+    <t>kim_2022</t>
+  </si>
+  <si>
+    <t>kim_2024</t>
+  </si>
+  <si>
+    <t>lee_2023-css-net</t>
+  </si>
+  <si>
+    <t>lee_2023_automated</t>
+  </si>
+  <si>
+    <t>lee_2023_deep</t>
+  </si>
+  <si>
+    <t>lin_2014</t>
+  </si>
+  <si>
+    <t>lin_2023</t>
+  </si>
+  <si>
+    <t>medina</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>obama</t>
+  </si>
+  <si>
+    <t>oeding</t>
+  </si>
+  <si>
+    <t>oeding_supplementary</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>shim</t>
+  </si>
+  <si>
+    <t>shinohara</t>
+  </si>
+  <si>
+    <t>xia</t>
+  </si>
+  <si>
+    <t>kim_2019</t>
+  </si>
+  <si>
+    <t>kim_2020_mri</t>
   </si>
 </sst>
 </file>
@@ -1292,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0937B5B-5D18-49DF-BB84-115CDE0D1125}">
-  <dimension ref="B1:N20"/>
+  <dimension ref="B1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="99" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2114,6 +2174,826 @@
         <v>99</v>
       </c>
     </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" t="s">
+        <v>100</v>
+      </c>
+      <c r="N21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22" t="s">
+        <v>100</v>
+      </c>
+      <c r="N22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" t="s">
+        <v>99</v>
+      </c>
+      <c r="M23" t="s">
+        <v>100</v>
+      </c>
+      <c r="N23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" t="s">
+        <v>100</v>
+      </c>
+      <c r="N24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25" t="s">
+        <v>100</v>
+      </c>
+      <c r="N25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" t="s">
+        <v>99</v>
+      </c>
+      <c r="M26" t="s">
+        <v>100</v>
+      </c>
+      <c r="N26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" t="s">
+        <v>99</v>
+      </c>
+      <c r="M27" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" t="s">
+        <v>99</v>
+      </c>
+      <c r="M28" t="s">
+        <v>100</v>
+      </c>
+      <c r="N28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" t="s">
+        <v>101</v>
+      </c>
+      <c r="K29" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" t="s">
+        <v>99</v>
+      </c>
+      <c r="M29" t="s">
+        <v>100</v>
+      </c>
+      <c r="N29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" t="s">
+        <v>100</v>
+      </c>
+      <c r="L30" t="s">
+        <v>99</v>
+      </c>
+      <c r="M30" t="s">
+        <v>100</v>
+      </c>
+      <c r="N30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" t="s">
+        <v>99</v>
+      </c>
+      <c r="L31" t="s">
+        <v>99</v>
+      </c>
+      <c r="M31" t="s">
+        <v>100</v>
+      </c>
+      <c r="N31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32" t="s">
+        <v>99</v>
+      </c>
+      <c r="L32" t="s">
+        <v>99</v>
+      </c>
+      <c r="M32" t="s">
+        <v>100</v>
+      </c>
+      <c r="N32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" t="s">
+        <v>99</v>
+      </c>
+      <c r="L33" t="s">
+        <v>99</v>
+      </c>
+      <c r="M33" t="s">
+        <v>99</v>
+      </c>
+      <c r="N33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" t="s">
+        <v>99</v>
+      </c>
+      <c r="L34" t="s">
+        <v>99</v>
+      </c>
+      <c r="M34" t="s">
+        <v>99</v>
+      </c>
+      <c r="N34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" t="s">
+        <v>101</v>
+      </c>
+      <c r="J35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" t="s">
+        <v>101</v>
+      </c>
+      <c r="N35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" t="s">
+        <v>101</v>
+      </c>
+      <c r="J36" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" t="s">
+        <v>99</v>
+      </c>
+      <c r="L36" t="s">
+        <v>101</v>
+      </c>
+      <c r="M36" t="s">
+        <v>101</v>
+      </c>
+      <c r="N36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" t="s">
+        <v>101</v>
+      </c>
+      <c r="J37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37" t="s">
+        <v>99</v>
+      </c>
+      <c r="L37" t="s">
+        <v>99</v>
+      </c>
+      <c r="M37" t="s">
+        <v>99</v>
+      </c>
+      <c r="N37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" t="s">
+        <v>101</v>
+      </c>
+      <c r="J38" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" t="s">
+        <v>100</v>
+      </c>
+      <c r="L38" t="s">
+        <v>99</v>
+      </c>
+      <c r="M38" t="s">
+        <v>100</v>
+      </c>
+      <c r="N38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" t="s">
+        <v>101</v>
+      </c>
+      <c r="J39" t="s">
+        <v>101</v>
+      </c>
+      <c r="K39" t="s">
+        <v>101</v>
+      </c>
+      <c r="L39" t="s">
+        <v>99</v>
+      </c>
+      <c r="M39" t="s">
+        <v>101</v>
+      </c>
+      <c r="N39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" t="s">
+        <v>101</v>
+      </c>
+      <c r="J40" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" t="s">
+        <v>100</v>
+      </c>
+      <c r="L40" t="s">
+        <v>99</v>
+      </c>
+      <c r="M40" t="s">
+        <v>101</v>
+      </c>
+      <c r="N40" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
